--- a/src/main/resources/upload/table/日期类型缺失字段格式.xlsx
+++ b/src/main/resources/upload/table/日期类型缺失字段格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32480" windowHeight="16520"/>
+    <workbookView windowWidth="32360" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,13 +76,13 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>yyyy-MM-dd HH:mm:ss</t>
-  </si>
-  <si>
     <t>收货日期</t>
   </si>
   <si>
     <t>accept_date</t>
+  </si>
+  <si>
+    <t>yyyy-MM-dd</t>
   </si>
   <si>
     <t>详细地址</t>
@@ -100,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,6 +121,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,13 +159,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,6 +167,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,110 +212,55 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -279,25 +279,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,73 +411,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,73 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,8 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,8 +488,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,198 +564,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1131,7 +1131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1142,22 +1142,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
